--- a/assets/files/maestros/NumerosCampaña.xlsx
+++ b/assets/files/maestros/NumerosCampaña.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\PythonProjects\AppScraping\assets\files\maestros\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2B60CDF-E435-4B18-8757-76B0DD1AF161}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B643F70-A67C-40CA-B328-616B44F358AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7110" yWindow="1875" windowWidth="21360" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6360" yWindow="1455" windowWidth="21360" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Celular</t>
   </si>
@@ -29,6 +29,9 @@
   </si>
   <si>
     <t>+51</t>
+  </si>
+  <si>
+    <t>931 624 093</t>
   </si>
 </sst>
 </file>
@@ -412,8 +415,8 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>953234644</v>
+      <c r="A2" t="s">
+        <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>2</v>

--- a/assets/files/maestros/NumerosCampaña.xlsx
+++ b/assets/files/maestros/NumerosCampaña.xlsx
@@ -1,60 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\PythonProjects\AppScraping\assets\files\maestros\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B643F70-A67C-40CA-B328-616B44F358AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="6360" yWindow="1455" windowWidth="21360" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>Celular</t>
-  </si>
-  <si>
-    <t>Codigo_Pais</t>
-  </si>
-  <si>
-    <t>+51</t>
-  </si>
-  <si>
-    <t>931 624 093</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -69,44 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -394,32 +420,1061 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B87"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>2</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Celular</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Codigo_Pais</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>924215421</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>+51</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>994371621</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>+51</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>980325428</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>+51</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>971512575</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>+51</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>923908415</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>+51</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>938653509</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>+51</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>992375783</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>+51</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>998376127</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>+51</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>941689164</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>+51</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>940147605</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>+51</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>999106011</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>+51</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>74652936</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>+591</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>946451098</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>+51</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>902223223</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>+51</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>931194955</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>+51</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>960285089</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>+51</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>949396675</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>+51</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>960121577</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>+51</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>901425982</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>+51</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>947242564</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>+51</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>961847257</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>+51</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>913655336</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>+51</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>902669190</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>+51</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>999097357</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>+51</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>979256306</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>+51</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>933915222</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>+51</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>936894747</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>+51</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>967763366</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>+51</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>910930325</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>+51</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>936256703</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>+51</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>916650368</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>+51</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>940772151</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>+51</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>942899286</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>+51</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>983493395</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>+51</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>931624093</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>+51</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>953349877</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>+51</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>937311516</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>+51</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>924076449</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>+51</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>918486489</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>+51</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>948936991</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>+51</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>934776954</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>+51</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>969281454</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>+51</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>989818461</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>+51</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>980753913</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>+51</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>992066782</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>+51</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>937157399</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>+51</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>974199244</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>+51</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>956713948</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>+51</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>940567410</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>+51</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>947873960</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>+51</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>928333177</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>+51</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>960321507</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>+51</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>940495268</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>+51</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>987034111</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>+51</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>(716)226-6665</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>+1</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>9351519-3923</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>+54</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>917751832</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>+51</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>955415652</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>+51</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>923418180</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>+51</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>938291176</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>+51</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>947271429</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>+51</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>986815243</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>+51</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>921070716</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>+51</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>929687903</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>+51</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>7710173736</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>+44</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>954786931</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>+51</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>923119599</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>+51</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>933716749</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>+51</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>924973193</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>+51</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>970226489</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>+51</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>994199030</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>+51</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>970873991</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>+51</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>993750328</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>+51</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>982246137</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>+51</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>995677635</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>+51</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>985054578</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>+51</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>902565924</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>+51</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>983420353</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>+51</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>978204518</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>+51</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>993459366</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>+51</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>978297348</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>+51</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>912036684</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>+51</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>927152300</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>+51</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>950164909</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>+51</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>917583573</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>+51</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>960681629</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>+51</t>
+        </is>
       </c>
     </row>
   </sheetData>
